--- a/lesson5_task01/порівняльна табличка.xlsx
+++ b/lesson5_task01/порівняльна табличка.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b785f1bafe2507e5/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b785f1bafe2507e5/Desktop/homework5/lesson5_task01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0B57E463-D593-4D71-9273-7B385EB61280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E69C15-4807-443C-94B5-9B33D779F244}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0B57E463-D593-4D71-9273-7B385EB61280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B1856F5-BE8C-4486-B157-07B99BA3B2A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27B7299B-2156-485F-9A18-FD466384EFC2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>proplists</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>швидкість читання елементів</t>
+  </si>
+  <si>
+    <t>Швидкість додавання нових даних відчутно більша ніж у інших механізмів збереження, плюсом є можливість зміни даних після створення словника.</t>
+  </si>
+  <si>
+    <t>Механізм збереження даних ключ-значення, доволі швидкій при різних операціях з даними, але після створення мапи неможна змінювати їх.</t>
+  </si>
+  <si>
+    <t>Містять записи у формі будь-яких кортежів, ключем є атом, швидкість оновлення елементів повільніша ніж у інших механізмів збереження пар.</t>
+  </si>
+  <si>
+    <t>Забезпечують можливість зберігання дуже великих кількостей дані,дані можна оновлювати та видаляти. Дані організовані у вигляді динамічних таблиць, які можуть зберігати кортежі. Кожна таблиця створюється процесом, при завершенні якого  таблиця автоматично руйнується.</t>
   </si>
 </sst>
 </file>
@@ -103,10 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -423,17 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C6B056-E19D-4328-AAF4-9C816096A4BD}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,6 +533,20 @@
       </c>
       <c r="E5">
         <v>3110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/lesson5_task01/порівняльна табличка.xlsx
+++ b/lesson5_task01/порівняльна табличка.xlsx
@@ -49,7 +49,7 @@
     <t>Швидкість додавання нових даних відчутно більша ніж у інших механізмів збереження, плюсом є можливість зміни даних після створення словника.</t>
   </si>
   <si>
-    <t>Забезпечують можливість зберігання великого обсягу даних, які можна оновлювати та видаляти. Різні операції з даними виконуються доволі швидко. Дані організовані у вигляді динамічних таблиць, які можуть зберігати кортежі. Кожна таблиця створюється процесом, при завершенні якого  таблиця автоматично знищується.</t>
+    <t>Забезпечують можливість зберігання великого обсягу даних, які можна оновлювати та видаляти. Різні операції з даними виконуються доволі швидко. Дані організовані у вигляді динамічних таблиць, які можуть зберігати кортежі. Кожна таблиця створюється процесом, при завершенні якого  таблиця автоматично знищується..</t>
   </si>
 </sst>
 </file>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,12 +75,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -115,7 +109,7 @@
   <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -132,14 +126,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>

--- a/lesson5_task01/порівняльна табличка.xlsx
+++ b/lesson5_task01/порівняльна табличка.xlsx
@@ -46,7 +46,7 @@
     <t>Механізм збереження даних ключ-значення, доволі швидкій при різних операціях з даними, але після створення мапи неможна змінювати їх.</t>
   </si>
   <si>
-    <t>Швидкість додавання нових даних відчутно більша ніж у інших механізмів збереження, плюсом є можливість зміни даних після створення словника.</t>
+    <t>Швидкість додавання нових даних відчутно повільніша, ніж у інших механізмів збереження, плюсом є можливість зміни даних після створення словника.</t>
   </si>
   <si>
     <t>Забезпечують можливість зберігання великого обсягу даних, які можна оновлювати та видаляти. Різні операції з даними виконуються доволі швидко. Дані організовані у вигляді динамічних таблиць, які можуть зберігати кортежі. Кожна таблиця створюється процесом, при завершенні якого  таблиця автоматично знищується..</t>
@@ -57,13 +57,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -108,28 +114,28 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
